--- a/HR/HR/Payroll data dictionary.xlsx
+++ b/HR/HR/Payroll data dictionary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xuru Xurito\Documents\Lucas\ProjectDotNet\HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucas\DotNet_Project_Lucas\HR\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{119EA358-B504-43B4-A0FF-2925CA81FDAD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>EmpId</t>
   </si>
@@ -154,12 +154,21 @@
   </si>
   <si>
     <t>Must have 3 digits: 001</t>
+  </si>
+  <si>
+    <t>Table HourlyRate</t>
+  </si>
+  <si>
+    <t>HourlyRateID</t>
+  </si>
+  <si>
+    <t>Must have a letter: A, B, C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,17 +228,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -241,6 +273,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB1A1CF-086A-4C35-9898-3A19E9628ED2}">
-  <dimension ref="A3:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,338 +615,373 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A5:A18"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
